--- a/Documentation/Gantt chart/Agile Quadruped Robot - Gantt Chart.xlsx
+++ b/Documentation/Gantt chart/Agile Quadruped Robot - Gantt Chart.xlsx
@@ -259,9 +259,6 @@
     <t>Design Analog Scaling Circuitry</t>
   </si>
   <si>
-    <t>Prototype Debug Panel</t>
-  </si>
-  <si>
     <t>Analyze Valve Control Signals</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>Finalize Component Layout</t>
   </si>
   <si>
-    <t>Develop Shoulder Joint Mechanism</t>
-  </si>
-  <si>
     <t>Make Poster</t>
   </si>
   <si>
@@ -281,6 +275,12 @@
   </si>
   <si>
     <t>First Step</t>
+  </si>
+  <si>
+    <t>Dynamic Simulation Analysis/Verification</t>
+  </si>
+  <si>
+    <t>Foot Design</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -622,14 +622,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -808,7 +811,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="24"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1089,8 +1092,8 @@
   </sheetPr>
   <dimension ref="B2:BQ50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -1098,31 +1101,31 @@
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="46.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.21875" style="1" customWidth="1"/>
     <col min="9" max="28" width="2.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:69" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="I3" s="8" t="s">
         <v>12</v>
       </c>
@@ -1131,7 +1134,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="9">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="O3" s="8"/>
       <c r="Q3" s="10"/>
@@ -1160,12 +1163,12 @@
       </c>
     </row>
     <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -1395,7 +1398,7 @@
       <c r="F9" s="31">
         <v>11</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="33">
         <v>1</v>
       </c>
     </row>
@@ -1560,7 +1563,7 @@
       </c>
     </row>
     <row r="18" spans="2:28" s="25" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="22">
@@ -1610,10 +1613,14 @@
       <c r="D19" s="27">
         <v>13</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
+      <c r="E19" s="27">
+        <v>12</v>
+      </c>
+      <c r="F19" s="27">
+        <v>13</v>
+      </c>
       <c r="G19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
@@ -1637,300 +1644,533 @@
       <c r="AA19" s="29"/>
       <c r="AB19" s="29"/>
     </row>
-    <row r="20" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="17">
+    <row r="20" spans="2:28" s="30" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="27">
+        <v>12</v>
+      </c>
+      <c r="D20" s="27">
         <v>13</v>
       </c>
-      <c r="D20" s="15">
-        <v>4</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16">
-        <v>0</v>
-      </c>
+      <c r="E20" s="27">
+        <v>12</v>
+      </c>
+      <c r="F20" s="27">
+        <v>13</v>
+      </c>
+      <c r="G20" s="28">
+        <v>1</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
     </row>
     <row r="21" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="20" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C21" s="17">
         <v>13</v>
       </c>
       <c r="D21" s="15">
-        <v>6</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="E21" s="15">
+        <v>13</v>
+      </c>
+      <c r="F21" s="15">
+        <v>4</v>
+      </c>
       <c r="G21" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="15">
+        <v>47</v>
+      </c>
+      <c r="C22" s="17">
         <v>13</v>
       </c>
       <c r="D22" s="15">
-        <v>2</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="E22" s="15">
+        <v>13</v>
+      </c>
+      <c r="F22" s="15">
+        <v>6</v>
+      </c>
       <c r="G22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D23" s="15">
-        <v>1</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="15">
+        <v>17</v>
+      </c>
+      <c r="F23" s="15">
+        <v>2</v>
+      </c>
       <c r="G23" s="16">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="24" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="20" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D24" s="15">
-        <v>1</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="E24" s="15">
+        <v>17</v>
+      </c>
+      <c r="F24" s="15">
+        <v>3</v>
+      </c>
       <c r="G24" s="16">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="25" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C25" s="15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25" s="15">
-        <v>4</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="15">
+        <v>17</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1</v>
+      </c>
       <c r="G25" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C26" s="15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D26" s="15">
-        <v>1</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="E26" s="15">
+        <v>16</v>
+      </c>
+      <c r="F26" s="15">
+        <v>2</v>
+      </c>
       <c r="G26" s="16">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="27" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="20" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D27" s="15">
         <v>1</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="15">
+        <v>18</v>
+      </c>
+      <c r="F27" s="15">
+        <v>1</v>
+      </c>
       <c r="G27" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C28" s="15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D28" s="15">
-        <v>2</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="15">
+        <v>20</v>
+      </c>
+      <c r="F28" s="15">
+        <v>1</v>
+      </c>
       <c r="G28" s="16">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="29" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="20" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C29" s="15">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D29" s="15">
         <v>2</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="E29" s="15">
+        <v>22</v>
+      </c>
+      <c r="F29" s="15">
+        <v>2</v>
+      </c>
       <c r="G29" s="16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" s="25" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="22">
+        <v>24</v>
+      </c>
+      <c r="D30" s="22">
+        <v>1</v>
+      </c>
+      <c r="E30" s="22">
+        <v>24</v>
+      </c>
+      <c r="F30" s="22">
+        <v>1</v>
+      </c>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
+      <c r="AB30" s="24"/>
+    </row>
+    <row r="31" spans="2:28" s="30" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="27">
+        <v>25</v>
+      </c>
+      <c r="D31" s="27">
+        <v>13</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="15">
-        <v>17</v>
-      </c>
-      <c r="D30" s="15">
-        <v>5</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="15">
-        <v>17</v>
-      </c>
-      <c r="D31" s="15">
-        <v>2</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+    </row>
+    <row r="32" spans="2:28" s="30" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="20" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C32" s="15">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D32" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+    </row>
+    <row r="33" spans="2:28" s="30" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="20" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C33" s="15">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D33" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+    </row>
+    <row r="34" spans="2:28" s="30" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="20" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C34" s="15">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D34" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+    </row>
+    <row r="35" spans="2:28" s="30" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="20" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C35" s="15">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D35" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+    </row>
+    <row r="36" spans="2:28" s="30" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C36" s="15">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D36" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+    </row>
+    <row r="37" spans="2:28" s="30" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C37" s="15">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D37" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+    </row>
+    <row r="38" spans="2:28" s="30" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="20" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C38" s="15">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D38" s="15">
         <v>2</v>
@@ -1940,106 +2180,106 @@
       <c r="G38" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+    </row>
+    <row r="39" spans="2:28" s="30" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="20" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C39" s="15">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D39" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:28" s="25" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="22">
-        <v>24</v>
-      </c>
-      <c r="D40" s="22">
-        <v>1</v>
-      </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23">
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+    </row>
+    <row r="40" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="15">
+        <v>27</v>
+      </c>
+      <c r="D40" s="15">
+        <v>2</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="16">
         <v>0</v>
       </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
-    </row>
-    <row r="41" spans="2:28" s="30" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="27">
-        <v>25</v>
-      </c>
-      <c r="D41" s="27">
-        <v>13</v>
-      </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="28">
+    </row>
+    <row r="41" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="15">
+        <v>29</v>
+      </c>
+      <c r="D41" s="15">
+        <v>3</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="16">
         <v>0</v>
       </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
     </row>
     <row r="42" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="20" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C42" s="15">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D42" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
@@ -2049,13 +2289,13 @@
     </row>
     <row r="43" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C43" s="15">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D43" s="15">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
@@ -2065,13 +2305,13 @@
     </row>
     <row r="44" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C44" s="15">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D44" s="15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
@@ -2081,13 +2321,13 @@
     </row>
     <row r="45" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C45" s="15">
         <v>27</v>
       </c>
       <c r="D45" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
@@ -2097,13 +2337,13 @@
     </row>
     <row r="46" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C46" s="15">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
@@ -2113,13 +2353,13 @@
     </row>
     <row r="47" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C47" s="15">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
@@ -2129,13 +2369,13 @@
     </row>
     <row r="48" spans="2:28" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" s="15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -2145,7 +2385,7 @@
     </row>
     <row r="49" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="20" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C49" s="15">
         <v>32</v>

--- a/Documentation/Gantt chart/Agile Quadruped Robot - Gantt Chart.xlsx
+++ b/Documentation/Gantt chart/Agile Quadruped Robot - Gantt Chart.xlsx
@@ -1092,8 +1092,8 @@
   </sheetPr>
   <dimension ref="B2:BQ50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -2292,10 +2292,10 @@
         <v>40</v>
       </c>
       <c r="C43" s="15">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D43" s="15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
